--- a/Companies/Bank - Private/HDFC Bank Ltd/Pruned_Excel/8_Jun22_Jun23.xlsx
+++ b/Companies/Bank - Private/HDFC Bank Ltd/Pruned_Excel/8_Jun22_Jun23.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,14 +435,10 @@
   <cols>
     <col width="54" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>27,402.28</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30,409.39</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33,641.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35,642.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>38,007.95</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>35,642.78</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33,641.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>30,409.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>27,402.28</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>38007.95</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>27402.28</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>33020.762</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>7,193.57</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7,701.93</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8,039.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8,376.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>8,911.24</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8,376.44</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8,039.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7,701.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7,193.57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>8911.24</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>7193.57</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>8044.48</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>296.24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>160.24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>231.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>308.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>791.85</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>308.65</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>231.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>160.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>296.24</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>791.85</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>160.24</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>357.728</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>279.95</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>314.82</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>795.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>791.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>875.77</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>791.49</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>795.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>314.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>279.95</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>875.77</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>279.95</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>611.5020000000001</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>6,388.23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7,595.58</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8,499.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8,731.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>9,229.85</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8,731.18</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8,499.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7,595.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6,388.23</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>9229.85</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>6388.23</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>8088.936</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>15,690.62</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17,565.22</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19,719.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21,767.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>24,987.74</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>21,767.53</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>19,719.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>17,565.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>15,690.62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>24987.74</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>15690.62</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>19946.21</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>3,500.24</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,523.83</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4,126.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4,362.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>4,782.07</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4,362.06</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4,126.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3,523.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3,500.24</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>4782.07</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>3500.24</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>4058.886</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>7,001.57</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7,700.74</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8,337.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9,100.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>9,274.83</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>9,100.05</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8,337.37</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7,700.74</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7,001.57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>9274.83</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>7001.57</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>8282.912</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>15,367.84</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17,392.17</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19,024.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>18,620.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>18,772.02</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>18,620.90</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>19,024.07</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>17,392.17</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>15,367.84</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>19024.07</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>15367.84</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>17835.4</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,187.73</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,240.13</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,806.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,685.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,860.03</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,685.37</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,806.44</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,240.13</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,187.73</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3240.13</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2685.37</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2955.94</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>12,180.11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14,152.04</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16,217.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15,935.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>15,911.99</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>15,935.53</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16,217.63</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14,152.04</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>12,180.11</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>16217.63</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>12180.11</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>14879.46</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2,984.12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3,546.26</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,958.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3,888.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>3,960.22</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3,888.08</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,958.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3,546.26</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2,984.12</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3960.22</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>2984.12</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>3667.364</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>9,195.99</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10,605.78</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12,259.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12,047.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>11,951.77</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>12,047.45</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>12,259.49</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>10,605.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9,195.99</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>12259.49</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>9195.99</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>11212.096</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>9,195.99</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10,605.78</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12,259.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12,047.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>11,951.77</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>12,047.45</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>12,259.49</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>10,605.78</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9,195.99</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>12259.49</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>9195.99</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>11212.096</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>555.46</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>557.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>557.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>557.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>559.18</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>557.97</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>557.68</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>557.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>555.46</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>559.1799999999999</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>555.46</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>557.458</v>
       </c>
     </row>
     <row r="21"/>
@@ -1151,37 +993,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>21.40</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>21.99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>19.07</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>16.60</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>20.132</v>
       </c>
     </row>
     <row r="26">
@@ -1192,37 +1025,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>21.28</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>21.49</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>21.89</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>20.032</v>
       </c>
     </row>
     <row r="27"/>
@@ -1241,37 +1065,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>21.40</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>21.99</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>19.07</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>16.60</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>20.132</v>
       </c>
     </row>
     <row r="30">
@@ -1282,37 +1097,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>21.28</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>21.49</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>21.89</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>20.032</v>
       </c>
     </row>
     <row r="31"/>
@@ -1331,37 +1137,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>18,033.67</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>183,010.00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18,763.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>18,019.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>19,064.12</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>18,019.03</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>18,763.90</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>183,010.00</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>18,033.67</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>183010</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>18019.03</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>51378.144</v>
       </c>
     </row>
     <row r="34">
@@ -1372,37 +1169,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>4,887.73</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4,882.67</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5,024.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4,368.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>4,776.87</t>
         </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>4,368.43</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5,024.27</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>4,882.67</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4,887.73</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>5024.27</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>4368.43</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>4787.994000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>1.17</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>1.206</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>0.30</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.316</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>0.51</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>0.53</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>0.51</t>
         </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.514</v>
       </c>
     </row>
     <row r="38"/>
@@ -1568,37 +1329,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>202206</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>202209</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>202303</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>202306</t>
         </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>202303</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>202212</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>202209</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>202206</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>202306</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>202206</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>202247.2</v>
       </c>
     </row>
   </sheetData>
